--- a/data/factors/factor14.xlsx
+++ b/data/factors/factor14.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA069031-BB90-40F6-9D53-2A8C82B63F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5688DBD9-63C6-4B7D-9BE4-A721652FEEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{39463EC9-AE6F-4343-BDCD-A24C31BDE4F8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>동양생명</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>파크시스템스</t>
-  </si>
-  <si>
-    <t>리노공업</t>
   </si>
   <si>
     <t>피델릭스</t>
@@ -689,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFFB778-7EF3-4E5C-8BC6-43CCD902C7CD}">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -737,257 +734,257 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.6">
@@ -997,157 +994,152 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A89" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A89">
-    <sortCondition ref="A1:A89"/>
+    <sortCondition ref="A10:A89"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
